--- a/Iran-Golestan-Ramian.xlsx
+++ b/Iran-Golestan-Ramian.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FBA06A8-17D6-42ED-877D-CC67041E2046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7003B256-A411-4093-931D-72876D2FE83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grazing area 1" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="298">
   <si>
     <t xml:space="preserve">Abb. </t>
   </si>
@@ -2649,12 +2649,15 @@
   <si>
     <t>Ave.</t>
   </si>
+  <si>
+    <t>species_names</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2729,12 +2732,6 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -3160,7 +3157,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3180,7 +3177,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3266,6 +3263,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3290,9 +3299,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3306,39 +3312,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3374,18 +3347,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 38" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 40" xfId="4"/>
-    <cellStyle name="Normal 41" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal 5 17" xfId="7"/>
-    <cellStyle name="Normal 6" xfId="8"/>
-    <cellStyle name="Normal 6 10" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 38" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 40" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 41" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 5 17" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 6 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3720,15 +3717,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A10" sqref="A10"/>
       <selection pane="topRight" activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="P129" sqref="P129"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -3746,253 +3743,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
     </row>
     <row r="2" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="120" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="120"/>
-      <c r="W2" s="120"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
     </row>
     <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="121">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="108">
         <v>41045</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="113"/>
-      <c r="W3" s="113"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="113" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="113"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="113"/>
-      <c r="W4" s="113"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="113" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="113"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="105"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="117" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
     </row>
     <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="117" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="116"/>
-      <c r="M9" s="116"/>
-      <c r="N9" s="116"/>
-      <c r="O9" s="116"/>
-      <c r="P9" s="116"/>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
     </row>
     <row r="10" spans="1:31" s="54" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
@@ -9713,43 +9712,43 @@
     </row>
     <row r="75" spans="1:31" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="111"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="108" t="s">
+      <c r="C75" s="115"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="117"/>
-      <c r="G75" s="109"/>
-      <c r="H75" s="109"/>
-      <c r="I75" s="109"/>
-      <c r="J75" s="109"/>
-      <c r="K75" s="109"/>
-      <c r="L75" s="118"/>
-      <c r="M75" s="108" t="s">
+      <c r="F75" s="120"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="121"/>
+      <c r="M75" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="109"/>
-      <c r="O75" s="109"/>
-      <c r="P75" s="118"/>
-      <c r="Q75" s="108" t="s">
+      <c r="N75" s="113"/>
+      <c r="O75" s="113"/>
+      <c r="P75" s="121"/>
+      <c r="Q75" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="R75" s="109"/>
-      <c r="S75" s="109"/>
-      <c r="T75" s="109"/>
-      <c r="U75" s="109"/>
-      <c r="V75" s="109"/>
-      <c r="W75" s="109"/>
-      <c r="X75" s="109"/>
-      <c r="Y75" s="109"/>
-      <c r="Z75" s="109"/>
-      <c r="AA75" s="109"/>
-      <c r="AB75" s="109"/>
-      <c r="AC75" s="109"/>
-      <c r="AD75" s="109"/>
+      <c r="R75" s="113"/>
+      <c r="S75" s="113"/>
+      <c r="T75" s="113"/>
+      <c r="U75" s="113"/>
+      <c r="V75" s="113"/>
+      <c r="W75" s="113"/>
+      <c r="X75" s="113"/>
+      <c r="Y75" s="113"/>
+      <c r="Z75" s="113"/>
+      <c r="AA75" s="113"/>
+      <c r="AB75" s="113"/>
+      <c r="AC75" s="113"/>
+      <c r="AD75" s="113"/>
       <c r="AE75" s="58"/>
     </row>
     <row r="76" spans="1:31" s="64" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
@@ -15778,13 +15777,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G4:W4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="G2:W2"/>
-    <mergeCell ref="G3:W3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="Q75:AD75"/>
     <mergeCell ref="B75:D75"/>
@@ -15795,6 +15787,13 @@
     <mergeCell ref="A9:V9"/>
     <mergeCell ref="E75:L75"/>
     <mergeCell ref="M75:P75"/>
+    <mergeCell ref="G4:W4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="G2:W2"/>
+    <mergeCell ref="G3:W3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15804,7 +15803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -15828,54 +15827,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="136"/>
-      <c r="W1" s="136"/>
-      <c r="X1" s="136"/>
-      <c r="Y1" s="136"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128"/>
+      <c r="Y1" s="128"/>
     </row>
     <row r="2" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="133" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
       <c r="R2" s="88"/>
@@ -15890,20 +15889,20 @@
       <c r="AB2" s="88"/>
     </row>
     <row r="3" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="122">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="133">
         <v>41047</v>
       </c>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="135"/>
       <c r="K3" s="88"/>
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
@@ -15923,20 +15922,20 @@
       <c r="AB3" s="88"/>
     </row>
     <row r="4" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="138"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="134" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
@@ -15956,20 +15955,20 @@
       <c r="AB4" s="88"/>
     </row>
     <row r="5" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="136" t="s">
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
       <c r="K5" s="88"/>
       <c r="L5" s="88"/>
       <c r="M5" s="88"/>
@@ -15989,120 +15988,120 @@
       <c r="AB5" s="88"/>
     </row>
     <row r="6" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="125"/>
-      <c r="Y6" s="125"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="136"/>
+      <c r="Y6" s="136"/>
     </row>
     <row r="7" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="126"/>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
+      <c r="U7" s="137"/>
+      <c r="V7" s="137"/>
+      <c r="W7" s="137"/>
+      <c r="X7" s="137"/>
+      <c r="Y7" s="137"/>
     </row>
     <row r="8" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="125"/>
-      <c r="W8" s="125"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="136"/>
+      <c r="P8" s="136"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="136"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="136"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="136"/>
+      <c r="W8" s="136"/>
+      <c r="X8" s="136"/>
+      <c r="Y8" s="136"/>
     </row>
     <row r="9" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
+      <c r="O9" s="127"/>
+      <c r="P9" s="127"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="127"/>
+      <c r="U9" s="127"/>
+      <c r="V9" s="127"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="127"/>
+      <c r="Y9" s="127"/>
     </row>
     <row r="10" spans="1:38" s="22" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -23324,48 +23323,48 @@
     </row>
     <row r="75" spans="1:38" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25"/>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="128"/>
-      <c r="D75" s="129"/>
-      <c r="E75" s="127" t="s">
+      <c r="C75" s="139"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="128"/>
-      <c r="G75" s="129"/>
-      <c r="H75" s="127" t="s">
+      <c r="F75" s="139"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="I75" s="128"/>
-      <c r="J75" s="128"/>
-      <c r="K75" s="128"/>
-      <c r="L75" s="128"/>
-      <c r="M75" s="128"/>
-      <c r="N75" s="128"/>
-      <c r="O75" s="128"/>
-      <c r="P75" s="128"/>
-      <c r="Q75" s="129"/>
-      <c r="R75" s="127" t="s">
+      <c r="I75" s="139"/>
+      <c r="J75" s="139"/>
+      <c r="K75" s="139"/>
+      <c r="L75" s="139"/>
+      <c r="M75" s="139"/>
+      <c r="N75" s="139"/>
+      <c r="O75" s="139"/>
+      <c r="P75" s="139"/>
+      <c r="Q75" s="140"/>
+      <c r="R75" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="S75" s="128"/>
-      <c r="T75" s="128"/>
-      <c r="U75" s="128"/>
-      <c r="V75" s="128"/>
-      <c r="W75" s="128"/>
-      <c r="X75" s="128"/>
-      <c r="Y75" s="128"/>
-      <c r="Z75" s="128"/>
-      <c r="AA75" s="128"/>
-      <c r="AB75" s="128"/>
-      <c r="AC75" s="128"/>
-      <c r="AD75" s="128"/>
-      <c r="AE75" s="128"/>
-      <c r="AF75" s="128"/>
-      <c r="AG75" s="128"/>
-      <c r="AH75" s="128"/>
-      <c r="AI75" s="129"/>
+      <c r="S75" s="139"/>
+      <c r="T75" s="139"/>
+      <c r="U75" s="139"/>
+      <c r="V75" s="139"/>
+      <c r="W75" s="139"/>
+      <c r="X75" s="139"/>
+      <c r="Y75" s="139"/>
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="139"/>
+      <c r="AB75" s="139"/>
+      <c r="AC75" s="139"/>
+      <c r="AD75" s="139"/>
+      <c r="AE75" s="139"/>
+      <c r="AF75" s="139"/>
+      <c r="AG75" s="139"/>
+      <c r="AH75" s="139"/>
+      <c r="AI75" s="140"/>
       <c r="AJ75" s="93"/>
       <c r="AK75" s="27"/>
     </row>
@@ -23593,42 +23592,42 @@
     </row>
     <row r="78" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
-      <c r="B78" s="130" t="s">
+      <c r="B78" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="131"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
-      <c r="F78" s="131"/>
-      <c r="G78" s="131"/>
-      <c r="H78" s="131"/>
-      <c r="I78" s="131"/>
-      <c r="J78" s="131"/>
-      <c r="K78" s="131"/>
-      <c r="L78" s="131"/>
-      <c r="M78" s="131"/>
-      <c r="N78" s="131"/>
-      <c r="O78" s="131"/>
-      <c r="P78" s="131"/>
-      <c r="Q78" s="131"/>
-      <c r="R78" s="131"/>
-      <c r="S78" s="131"/>
-      <c r="T78" s="131"/>
-      <c r="U78" s="131"/>
-      <c r="V78" s="131"/>
-      <c r="W78" s="131"/>
-      <c r="X78" s="131"/>
-      <c r="Y78" s="131"/>
-      <c r="Z78" s="131"/>
-      <c r="AA78" s="131"/>
-      <c r="AB78" s="131"/>
-      <c r="AC78" s="131"/>
-      <c r="AD78" s="131"/>
-      <c r="AE78" s="131"/>
-      <c r="AF78" s="131"/>
-      <c r="AG78" s="131"/>
-      <c r="AH78" s="131"/>
-      <c r="AI78" s="132"/>
+      <c r="C78" s="123"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="123"/>
+      <c r="F78" s="123"/>
+      <c r="G78" s="123"/>
+      <c r="H78" s="123"/>
+      <c r="I78" s="123"/>
+      <c r="J78" s="123"/>
+      <c r="K78" s="123"/>
+      <c r="L78" s="123"/>
+      <c r="M78" s="123"/>
+      <c r="N78" s="123"/>
+      <c r="O78" s="123"/>
+      <c r="P78" s="123"/>
+      <c r="Q78" s="123"/>
+      <c r="R78" s="123"/>
+      <c r="S78" s="123"/>
+      <c r="T78" s="123"/>
+      <c r="U78" s="123"/>
+      <c r="V78" s="123"/>
+      <c r="W78" s="123"/>
+      <c r="X78" s="123"/>
+      <c r="Y78" s="123"/>
+      <c r="Z78" s="123"/>
+      <c r="AA78" s="123"/>
+      <c r="AB78" s="123"/>
+      <c r="AC78" s="123"/>
+      <c r="AD78" s="123"/>
+      <c r="AE78" s="123"/>
+      <c r="AF78" s="123"/>
+      <c r="AG78" s="123"/>
+      <c r="AH78" s="123"/>
+      <c r="AI78" s="124"/>
       <c r="AJ78" s="69" t="s">
         <v>293</v>
       </c>
@@ -30886,7 +30885,7 @@
       <c r="AI144" s="103"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL142">
+  <autoFilter ref="A1:AL142" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
@@ -30913,6 +30912,8 @@
     <filterColumn colId="23" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="H75:Q75"/>
+    <mergeCell ref="R75:AI75"/>
     <mergeCell ref="B78:AI78"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="G4:J4"/>
@@ -30929,8 +30930,6 @@
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:Q75"/>
-    <mergeCell ref="R75:AI75"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30940,10 +30939,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
     </sheetView>
@@ -32926,6 +32925,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E0C724CCBB7FB24794473D558C897B81" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86d9b256e064198c05d6efa412f72bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="14f82cd5-dea2-47e7-b602-401f39b9480a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9d018442e514e3a48a93ea56c159054e" ns2:_="">
     <xsd:import namespace="14f82cd5-dea2-47e7-b602-401f39b9480a"/>
@@ -33071,22 +33085,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6139830F-5ABD-494A-800B-6BBD882C5A11}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{463907BB-497B-456E-ADAC-B860256757A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DFC8D9F-8B3B-4B5E-AFC8-F021CFD60E77}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33102,21 +33118,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{463907BB-497B-456E-ADAC-B860256757A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6139830F-5ABD-494A-800B-6BBD882C5A11}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Iran-Golestan-Ramian.xlsx
+++ b/Iran-Golestan-Ramian.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TRU\Iran_data\CSV\Iran_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE572CA6-A24A-4D10-828C-85F2630C7B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985D9B48-D310-48F3-B04A-B4C18614DF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grazing area 1" sheetId="3" r:id="rId1"/>
@@ -3257,6 +3257,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3281,9 +3293,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3299,14 +3308,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3334,30 +3358,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3737,250 +3737,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
     </row>
     <row r="2" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="119" t="s">
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="119"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
     </row>
     <row r="3" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="120">
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="107">
         <v>41045</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
     </row>
     <row r="4" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="112" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
     </row>
     <row r="5" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="112" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
     </row>
     <row r="6" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
     </row>
     <row r="7" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="116" t="s">
         <v>184</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
     </row>
     <row r="8" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="113"/>
-      <c r="Q8" s="113"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
     </row>
     <row r="9" spans="1:31" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="118"/>
+      <c r="T9" s="118"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
     </row>
     <row r="10" spans="1:31" s="53" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -9706,43 +9706,43 @@
     </row>
     <row r="75" spans="1:31" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="109" t="s">
+      <c r="B75" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="110"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="107" t="s">
+      <c r="C75" s="114"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="116"/>
-      <c r="G75" s="108"/>
-      <c r="H75" s="108"/>
-      <c r="I75" s="108"/>
-      <c r="J75" s="108"/>
-      <c r="K75" s="108"/>
-      <c r="L75" s="117"/>
-      <c r="M75" s="107" t="s">
+      <c r="F75" s="119"/>
+      <c r="G75" s="112"/>
+      <c r="H75" s="112"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="120"/>
+      <c r="M75" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="N75" s="108"/>
-      <c r="O75" s="108"/>
-      <c r="P75" s="117"/>
-      <c r="Q75" s="107" t="s">
+      <c r="N75" s="112"/>
+      <c r="O75" s="112"/>
+      <c r="P75" s="120"/>
+      <c r="Q75" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="R75" s="108"/>
-      <c r="S75" s="108"/>
-      <c r="T75" s="108"/>
-      <c r="U75" s="108"/>
-      <c r="V75" s="108"/>
-      <c r="W75" s="108"/>
-      <c r="X75" s="108"/>
-      <c r="Y75" s="108"/>
-      <c r="Z75" s="108"/>
-      <c r="AA75" s="108"/>
-      <c r="AB75" s="108"/>
-      <c r="AC75" s="108"/>
-      <c r="AD75" s="108"/>
+      <c r="R75" s="112"/>
+      <c r="S75" s="112"/>
+      <c r="T75" s="112"/>
+      <c r="U75" s="112"/>
+      <c r="V75" s="112"/>
+      <c r="W75" s="112"/>
+      <c r="X75" s="112"/>
+      <c r="Y75" s="112"/>
+      <c r="Z75" s="112"/>
+      <c r="AA75" s="112"/>
+      <c r="AB75" s="112"/>
+      <c r="AC75" s="112"/>
+      <c r="AD75" s="112"/>
       <c r="AE75" s="57"/>
     </row>
     <row r="76" spans="1:31" s="63" customFormat="1" ht="10.5" x14ac:dyDescent="0.25">
@@ -15771,13 +15771,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G4:W4"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="G2:W2"/>
-    <mergeCell ref="G3:W3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="Q75:AD75"/>
     <mergeCell ref="B75:D75"/>
@@ -15788,6 +15781,13 @@
     <mergeCell ref="A9:V9"/>
     <mergeCell ref="E75:L75"/>
     <mergeCell ref="M75:P75"/>
+    <mergeCell ref="G4:W4"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="G2:W2"/>
+    <mergeCell ref="G3:W3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15821,54 +15821,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
     </row>
     <row r="2" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="127" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
       <c r="R2" s="87"/>
@@ -15883,20 +15883,20 @@
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="135">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="126">
         <v>41047</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128"/>
       <c r="K3" s="87"/>
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
@@ -15916,20 +15916,20 @@
       <c r="AB3" s="87"/>
     </row>
     <row r="4" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="128" t="s">
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="136" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
       <c r="K4" s="87"/>
       <c r="L4" s="87"/>
       <c r="M4" s="87"/>
@@ -15949,20 +15949,20 @@
       <c r="AB4" s="87"/>
     </row>
     <row r="5" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="130" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="130"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
       <c r="K5" s="87"/>
       <c r="L5" s="87"/>
       <c r="M5" s="87"/>
@@ -16069,33 +16069,33 @@
       <c r="Y8" s="138"/>
     </row>
     <row r="9" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="129"/>
-      <c r="Q9" s="129"/>
-      <c r="R9" s="129"/>
-      <c r="S9" s="129"/>
-      <c r="T9" s="129"/>
-      <c r="U9" s="129"/>
-      <c r="V9" s="129"/>
-      <c r="W9" s="129"/>
-      <c r="X9" s="129"/>
-      <c r="Y9" s="129"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="137"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="137"/>
+      <c r="Y9" s="137"/>
     </row>
     <row r="10" spans="1:38" s="21" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
@@ -23317,48 +23317,48 @@
     </row>
     <row r="75" spans="1:38" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="24"/>
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="121" t="s">
+      <c r="C75" s="130"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="122"/>
-      <c r="G75" s="123"/>
-      <c r="H75" s="121" t="s">
+      <c r="F75" s="130"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="122"/>
-      <c r="M75" s="122"/>
-      <c r="N75" s="122"/>
-      <c r="O75" s="122"/>
-      <c r="P75" s="122"/>
-      <c r="Q75" s="123"/>
-      <c r="R75" s="121" t="s">
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="130"/>
+      <c r="M75" s="130"/>
+      <c r="N75" s="130"/>
+      <c r="O75" s="130"/>
+      <c r="P75" s="130"/>
+      <c r="Q75" s="131"/>
+      <c r="R75" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="S75" s="122"/>
-      <c r="T75" s="122"/>
-      <c r="U75" s="122"/>
-      <c r="V75" s="122"/>
-      <c r="W75" s="122"/>
-      <c r="X75" s="122"/>
-      <c r="Y75" s="122"/>
-      <c r="Z75" s="122"/>
-      <c r="AA75" s="122"/>
-      <c r="AB75" s="122"/>
-      <c r="AC75" s="122"/>
-      <c r="AD75" s="122"/>
-      <c r="AE75" s="122"/>
-      <c r="AF75" s="122"/>
-      <c r="AG75" s="122"/>
-      <c r="AH75" s="122"/>
-      <c r="AI75" s="123"/>
+      <c r="S75" s="130"/>
+      <c r="T75" s="130"/>
+      <c r="U75" s="130"/>
+      <c r="V75" s="130"/>
+      <c r="W75" s="130"/>
+      <c r="X75" s="130"/>
+      <c r="Y75" s="130"/>
+      <c r="Z75" s="130"/>
+      <c r="AA75" s="130"/>
+      <c r="AB75" s="130"/>
+      <c r="AC75" s="130"/>
+      <c r="AD75" s="130"/>
+      <c r="AE75" s="130"/>
+      <c r="AF75" s="130"/>
+      <c r="AG75" s="130"/>
+      <c r="AH75" s="130"/>
+      <c r="AI75" s="131"/>
       <c r="AJ75" s="92"/>
       <c r="AK75" s="26"/>
     </row>
@@ -23586,42 +23586,42 @@
     </row>
     <row r="78" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
-      <c r="B78" s="124" t="s">
+      <c r="B78" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
-      <c r="E78" s="125"/>
-      <c r="F78" s="125"/>
-      <c r="G78" s="125"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="125"/>
-      <c r="J78" s="125"/>
-      <c r="K78" s="125"/>
-      <c r="L78" s="125"/>
-      <c r="M78" s="125"/>
-      <c r="N78" s="125"/>
-      <c r="O78" s="125"/>
-      <c r="P78" s="125"/>
-      <c r="Q78" s="125"/>
-      <c r="R78" s="125"/>
-      <c r="S78" s="125"/>
-      <c r="T78" s="125"/>
-      <c r="U78" s="125"/>
-      <c r="V78" s="125"/>
-      <c r="W78" s="125"/>
-      <c r="X78" s="125"/>
-      <c r="Y78" s="125"/>
-      <c r="Z78" s="125"/>
-      <c r="AA78" s="125"/>
-      <c r="AB78" s="125"/>
-      <c r="AC78" s="125"/>
-      <c r="AD78" s="125"/>
-      <c r="AE78" s="125"/>
-      <c r="AF78" s="125"/>
-      <c r="AG78" s="125"/>
-      <c r="AH78" s="125"/>
-      <c r="AI78" s="126"/>
+      <c r="C78" s="133"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
+      <c r="F78" s="133"/>
+      <c r="G78" s="133"/>
+      <c r="H78" s="133"/>
+      <c r="I78" s="133"/>
+      <c r="J78" s="133"/>
+      <c r="K78" s="133"/>
+      <c r="L78" s="133"/>
+      <c r="M78" s="133"/>
+      <c r="N78" s="133"/>
+      <c r="O78" s="133"/>
+      <c r="P78" s="133"/>
+      <c r="Q78" s="133"/>
+      <c r="R78" s="133"/>
+      <c r="S78" s="133"/>
+      <c r="T78" s="133"/>
+      <c r="U78" s="133"/>
+      <c r="V78" s="133"/>
+      <c r="W78" s="133"/>
+      <c r="X78" s="133"/>
+      <c r="Y78" s="133"/>
+      <c r="Z78" s="133"/>
+      <c r="AA78" s="133"/>
+      <c r="AB78" s="133"/>
+      <c r="AC78" s="133"/>
+      <c r="AD78" s="133"/>
+      <c r="AE78" s="133"/>
+      <c r="AF78" s="133"/>
+      <c r="AG78" s="133"/>
+      <c r="AH78" s="133"/>
+      <c r="AI78" s="134"/>
       <c r="AJ78" s="68" t="s">
         <v>293</v>
       </c>
@@ -30906,13 +30906,6 @@
     <filterColumn colId="23" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G3:J3"/>
     <mergeCell ref="H75:Q75"/>
     <mergeCell ref="R75:AI75"/>
     <mergeCell ref="B78:AI78"/>
@@ -30924,6 +30917,13 @@
     <mergeCell ref="A8:Y8"/>
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="E75:G75"/>
+    <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33065,18 +33065,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33098,18 +33098,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{463907BB-497B-456E-ADAC-B860256757A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6139830F-5ABD-494A-800B-6BBD882C5A11}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{463907BB-497B-456E-ADAC-B860256757A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>